--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationdispense-injection.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationdispense-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="450">
   <si>
     <t>Property</t>
   </si>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>
@@ -489,25 +489,272 @@
 </t>
   </si>
   <si>
-    <t>External identifier</t>
-  </si>
-  <si>
-    <t>Identifiers associated with this Medication Dispense that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.</t>
+    <t>外部から参照されるID</t>
+  </si>
+  <si>
+    <t>このインスタンスが外部から参照されるために使われるIDである。処方箋全体としてのIDとしては使用しない。
+処方箋内で同一の用法をまとめて表記されるRp番号はこのIdentifier elementの別スライスで表現する。それ以外に任意のIDを付与してもよい。
+このIDは業務手順によって定められた処方オーダに対して、直接的なURL参照が適切でない場合も含めて関連付けるために使われる。この業務手順のIDは実施者によって割り当てられたものであり、リソースが更新されたりサーバからサーバに転送されたとしても固定のものとして存続する。</t>
+  </si>
+  <si>
+    <t>これは業務IDであって、リソースに対するIDではない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>CombinedMedicationDispense.id</t>
+  </si>
+  <si>
+    <t>rpNumber</t>
+  </si>
+  <si>
+    <t>処方箋内部の剤グループとしてのRp番号</t>
+  </si>
+  <si>
+    <t>処方箋内で同一用法の薬剤を慣用的にまとめて、Rpに番号をつけて剤グループとして一括指定されることがある。このスライスでは剤グループに対して割り振られたRp番号を記録する。</t>
+  </si>
+  <si>
+    <t>剤グループに複数の薬剤が含まれる場合、このグループ内の薬剤には同じRp番号が割り振られる。</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.system</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)についてのsystem値</t>
+  </si>
+  <si>
+    <t>ここで付番されたIDがRp番号であることを明示するためにOIDとして定義された。urn:oid:1.2.392.100495.20.3.81で固定される。</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.3.81</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.value</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)。"1"など。</t>
+  </si>
+  <si>
+    <t>value は string型であり、数値はゼロサプレス、つまり、'01'でなく'1'と指定すること。</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>requestIdentifier</t>
+  </si>
+  <si>
+    <t>処方オーダに対するID(MedicationRequestからの継承)</t>
+  </si>
+  <si>
+    <t>薬剤をオーダする単位としての処方箋に対するID。原則として調剤の基となったMedicationRequestのIDを設定する。</t>
   </si>
   <si>
     <t>This is a business identifier, not a resource identifier.</t>
   </si>
   <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>CombinedMedicationDispense.id</t>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>MedicationDispense.partOf</t>
@@ -543,9 +790,6 @@
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>A coded concept specifying the state of the dispense event.</t>
   </si>
   <si>
@@ -594,10 +838,6 @@
   </si>
   <si>
     <t>MedicationDispense.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>Type of medication dispense　調剤タイプ</t>
@@ -766,32 +1006,7 @@
     <t>MedicationDispense.performer.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>MedicationDispense.performer.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>MedicationDispense.performer.modifierExtension</t>
@@ -1559,7 +1774,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN48"/>
+  <dimension ref="A1:AN66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1595,7 +1810,7 @@
     <col min="25" max="25" width="71.296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="46.84375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2876,7 +3091,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>79</v>
@@ -2938,16 +3153,14 @@
         <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="AB12" s="2"/>
       <c r="AC12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>150</v>
@@ -2965,16 +3178,16 @@
         <v>98</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>77</v>
@@ -2982,18 +3195,20 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="C13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>77</v>
@@ -3005,7 +3220,7 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>161</v>
@@ -3013,7 +3228,9 @@
       <c r="L13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="M13" s="2"/>
+      <c r="M13" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>77</v>
@@ -3062,7 +3279,7 @@
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>78</v>
@@ -3077,16 +3294,16 @@
         <v>98</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>77</v>
@@ -3094,7 +3311,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3102,7 +3319,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>86</v>
@@ -3111,13 +3328,13 @@
         <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>166</v>
@@ -3125,9 +3342,7 @@
       <c r="L14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>168</v>
-      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>77</v>
@@ -3152,55 +3367,55 @@
         <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="X14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>173</v>
-      </c>
       <c r="AL14" t="s" s="2">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
@@ -3208,18 +3423,18 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>77</v>
@@ -3231,15 +3446,17 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>77</v>
@@ -3264,49 +3481,49 @@
         <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>77</v>
@@ -3320,7 +3537,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3337,24 +3554,26 @@
         <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3378,13 +3597,13 @@
         <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>77</v>
@@ -3402,7 +3621,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -3420,7 +3639,7 @@
         <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
@@ -3429,12 +3648,12 @@
         <v>77</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3442,7 +3661,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>86</v>
@@ -3457,18 +3676,20 @@
         <v>87</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3492,32 +3713,34 @@
         <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AB17" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>86</v>
@@ -3529,28 +3752,26 @@
         <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3571,30 +3792,32 @@
         <v>87</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>206</v>
+        <v>100</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>77</v>
@@ -3630,10 +3853,10 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -3645,24 +3868,24 @@
         <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3685,16 +3908,16 @@
         <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3708,7 +3931,7 @@
         <v>77</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>77</v>
@@ -3744,7 +3967,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -3759,24 +3982,24 @@
         <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>215</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3796,20 +4019,18 @@
         <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K20" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>211</v>
-      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>77</v>
@@ -3858,7 +4079,7 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -3873,24 +4094,24 @@
         <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3901,7 +4122,7 @@
         <v>78</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>77</v>
@@ -3910,19 +4131,19 @@
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3972,13 +4193,13 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>77</v>
@@ -3990,23 +4211,25 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>77</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4027,7 +4250,7 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>229</v>
+        <v>151</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>230</v>
@@ -4035,7 +4258,9 @@
       <c r="L22" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M22" s="2"/>
+      <c r="M22" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>77</v>
@@ -4084,7 +4309,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>228</v>
+        <v>150</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4099,16 +4324,16 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>232</v>
+        <v>156</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>233</v>
+        <v>157</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4116,7 +4341,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>234</v>
+        <v>164</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4139,13 +4364,13 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>235</v>
+        <v>165</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>236</v>
+        <v>166</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>237</v>
+        <v>167</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4196,7 +4421,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>238</v>
+        <v>168</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4214,7 +4439,7 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>239</v>
+        <v>169</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4228,7 +4453,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4254,10 +4479,10 @@
         <v>131</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>241</v>
+        <v>171</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>242</v>
+        <v>172</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>147</v>
@@ -4298,19 +4523,19 @@
         <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>243</v>
+        <v>174</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4328,7 +4553,7 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>239</v>
+        <v>169</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4342,18 +4567,18 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>244</v>
+        <v>175</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>245</v>
+        <v>77</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>77</v>
@@ -4365,19 +4590,19 @@
         <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>246</v>
+        <v>176</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>247</v>
+        <v>177</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4402,13 +4627,13 @@
         <v>77</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>77</v>
@@ -4426,39 +4651,39 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>248</v>
+        <v>183</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>185</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4478,20 +4703,22 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>186</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="N26" t="s" s="2">
-        <v>252</v>
+        <v>190</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -4516,13 +4743,13 @@
         <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>253</v>
+        <v>192</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>254</v>
+        <v>193</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>77</v>
@@ -4540,7 +4767,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>249</v>
+        <v>194</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4558,7 +4785,7 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>255</v>
+        <v>184</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4567,12 +4794,12 @@
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>77</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>196</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4592,31 +4819,35 @@
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>257</v>
+        <v>100</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>77</v>
@@ -4652,10 +4883,10 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>256</v>
+        <v>203</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>86</v>
@@ -4667,10 +4898,10 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>261</v>
+        <v>204</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -4679,12 +4910,12 @@
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>206</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4692,7 +4923,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>86</v>
@@ -4704,19 +4935,19 @@
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>263</v>
+        <v>165</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4730,7 +4961,7 @@
         <v>77</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>77</v>
@@ -4766,7 +4997,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -4784,7 +5015,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>266</v>
+        <v>212</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -4793,12 +5024,12 @@
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>267</v>
+        <v>214</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4809,7 +5040,7 @@
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>77</v>
@@ -4818,20 +5049,18 @@
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>268</v>
+        <v>215</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>269</v>
+        <v>216</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -4880,13 +5109,13 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>267</v>
+        <v>218</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>77</v>
@@ -4895,24 +5124,24 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>272</v>
+        <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>275</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4932,19 +5161,19 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>277</v>
+        <v>223</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>278</v>
+        <v>224</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4970,13 +5199,13 @@
         <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>281</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>77</v>
@@ -4994,7 +5223,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>276</v>
+        <v>226</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5012,21 +5241,21 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>284</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>285</v>
+        <v>239</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5034,10 +5263,10 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>77</v>
@@ -5049,17 +5278,15 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5108,25 +5335,25 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>285</v>
+        <v>239</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>290</v>
+        <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -5135,12 +5362,12 @@
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>292</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>293</v>
+        <v>245</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5148,7 +5375,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>86</v>
@@ -5157,22 +5384,22 @@
         <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>286</v>
+        <v>106</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>294</v>
+        <v>246</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>295</v>
+        <v>247</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5198,13 +5425,13 @@
         <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>77</v>
@@ -5222,39 +5449,39 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>293</v>
+        <v>245</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>290</v>
+        <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>292</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5274,16 +5501,16 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5310,13 +5537,13 @@
         <v>77</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>77</v>
@@ -5334,7 +5561,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5349,24 +5576,24 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5374,7 +5601,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>86</v>
@@ -5389,15 +5616,17 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>297</v>
+        <v>186</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>77</v>
@@ -5422,13 +5651,13 @@
         <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>77</v>
@@ -5446,7 +5675,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5461,24 +5690,24 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5486,7 +5715,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>86</v>
@@ -5498,19 +5727,19 @@
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>211</v>
+        <v>275</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5548,22 +5777,20 @@
         <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="AB35" s="2"/>
       <c r="AC35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>86</v>
@@ -5575,35 +5802,37 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>313</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="B36" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="C36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>77</v>
@@ -5612,19 +5841,19 @@
         <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>211</v>
+        <v>275</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5674,13 +5903,13 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>77</v>
@@ -5689,24 +5918,24 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>77</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5714,10 +5943,10 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>77</v>
@@ -5726,19 +5955,19 @@
         <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5788,13 +6017,13 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>77</v>
@@ -5803,24 +6032,24 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>77</v>
+        <v>292</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>327</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5831,7 +6060,7 @@
         <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>77</v>
@@ -5843,16 +6072,16 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5902,13 +6131,13 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>77</v>
@@ -5917,10 +6146,10 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>77</v>
+        <v>298</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -5934,7 +6163,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5945,7 +6174,7 @@
         <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>77</v>
@@ -5957,15 +6186,17 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>229</v>
+        <v>301</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6014,13 +6245,13 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>77</v>
@@ -6032,13 +6263,13 @@
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6046,7 +6277,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6057,7 +6288,7 @@
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>77</v>
@@ -6069,13 +6300,13 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>236</v>
+        <v>308</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>237</v>
+        <v>309</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6126,25 +6357,25 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>238</v>
+        <v>306</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>239</v>
+        <v>311</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6158,18 +6389,18 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>77</v>
@@ -6181,17 +6412,15 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>241</v>
+        <v>166</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>77</v>
@@ -6240,25 +6469,25 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>243</v>
+        <v>168</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>239</v>
+        <v>169</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6272,11 +6501,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>245</v>
+        <v>144</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6289,26 +6518,24 @@
         <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>246</v>
+        <v>171</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>247</v>
+        <v>172</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="N42" t="s" s="2">
-        <v>148</v>
-      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6356,7 +6583,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>248</v>
+        <v>174</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6374,7 +6601,7 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6388,39 +6615,43 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>342</v>
+        <v>131</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6468,25 +6699,25 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>345</v>
+        <v>129</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6500,7 +6731,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6526,15 +6757,15 @@
         <v>186</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6558,13 +6789,13 @@
         <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
@@ -6582,7 +6813,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6600,21 +6831,21 @@
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>352</v>
+        <v>77</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>353</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6622,10 +6853,10 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>77</v>
@@ -6637,17 +6868,15 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>186</v>
+        <v>327</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>77</v>
@@ -6672,13 +6901,13 @@
         <v>77</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>357</v>
+        <v>77</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>358</v>
+        <v>77</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>77</v>
@@ -6696,13 +6925,13 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>77</v>
@@ -6711,16 +6940,16 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>77</v>
+        <v>330</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>360</v>
+        <v>77</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -6728,7 +6957,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6739,7 +6968,7 @@
         <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>77</v>
@@ -6751,16 +6980,16 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>211</v>
+        <v>289</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6810,13 +7039,13 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>77</v>
@@ -6828,13 +7057,13 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>366</v>
+        <v>77</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -6842,11 +7071,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>368</v>
+        <v>77</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6865,16 +7094,16 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>372</v>
+        <v>341</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6924,7 +7153,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -6939,24 +7168,24 @@
         <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>77</v>
+        <v>342</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>373</v>
+        <v>343</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>77</v>
+        <v>344</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>77</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6967,7 +7196,7 @@
         <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>77</v>
@@ -6979,16 +7208,16 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>375</v>
+        <v>186</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7014,13 +7243,13 @@
         <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>77</v>
+        <v>350</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>77</v>
+        <v>351</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>77</v>
@@ -7038,13 +7267,13 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>77</v>
@@ -7056,15 +7285,2059 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AL48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN48" t="s" s="2">
+      <c r="L53" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN66" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationdispense-injection.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationdispense-injection.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationdispense-injection.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationdispense-injection.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationdispense-injection.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationdispense-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="450">
   <si>
     <t>Property</t>
   </si>
@@ -262,10 +262,6 @@
   </si>
   <si>
     <t>指定された患者・個人へ注射薬剤が払い出されたか払い出される予定のものを示す。これには（供給される）提供される製品についての説明や注射薬剤の服用に関する指示も含まれる。薬剤払い出しは注射オーダに対して薬局システムが対応した結果となる。</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}mdd-1:whenHandedOver cannot be before whenPrepared {whenHandedOver.empty() or whenPrepared.empty() or whenHandedOver &gt;= whenPrepared}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2044,13 +2040,13 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>78</v>
@@ -2064,7 +2060,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2075,28 +2071,28 @@
         <v>79</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2146,13 +2142,13 @@
         <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>78</v>
@@ -2178,7 +2174,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2189,25 +2185,25 @@
         <v>79</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2258,19 +2254,19 @@
         <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -2290,7 +2286,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2301,28 +2297,28 @@
         <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2372,19 +2368,19 @@
         <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>78</v>
@@ -2404,7 +2400,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2415,7 +2411,7 @@
         <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>78</v>
@@ -2427,16 +2423,16 @@
         <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2462,43 +2458,43 @@
         <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>78</v>
@@ -2518,18 +2514,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>78</v>
@@ -2541,16 +2537,16 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2600,25 +2596,25 @@
         <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>78</v>
@@ -2632,11 +2628,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2655,16 +2651,16 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2714,7 +2710,7 @@
         <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>79</v>
@@ -2732,7 +2728,7 @@
         <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>78</v>
@@ -2746,7 +2742,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2769,13 +2765,13 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2814,17 +2810,17 @@
         <v>78</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>79</v>
@@ -2836,7 +2832,7 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>78</v>
@@ -2856,10 +2852,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>78</v>
@@ -2881,13 +2877,13 @@
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2938,7 +2934,7 @@
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>79</v>
@@ -2947,10 +2943,10 @@
         <v>80</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>78</v>
@@ -2970,11 +2966,11 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2987,25 +2983,25 @@
         <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>78</v>
@@ -3054,7 +3050,7 @@
         <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>79</v>
@@ -3066,13 +3062,13 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>78</v>
@@ -3086,7 +3082,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3094,7 +3090,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>80</v>
@@ -3109,16 +3105,16 @@
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3156,17 +3152,17 @@
         <v>78</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>79</v>
@@ -3178,19 +3174,19 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>78</v>
@@ -3198,20 +3194,20 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>78</v>
@@ -3223,16 +3219,16 @@
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3282,7 +3278,7 @@
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>79</v>
@@ -3294,19 +3290,19 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>78</v>
@@ -3314,7 +3310,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3325,7 +3321,7 @@
         <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>78</v>
@@ -3337,13 +3333,13 @@
         <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3394,25 +3390,25 @@
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>78</v>
@@ -3426,11 +3422,11 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3449,16 +3445,16 @@
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>173</v>
-      </c>
       <c r="M15" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3496,19 +3492,19 @@
         <v>78</v>
       </c>
       <c r="AA15" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD15" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AB15" t="s" s="2">
+      <c r="AE15" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>79</v>
@@ -3520,13 +3516,13 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>78</v>
@@ -3540,7 +3536,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3551,31 +3547,31 @@
         <v>79</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H16" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I16" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>78</v>
@@ -3600,50 +3596,50 @@
         <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE16" t="s" s="2">
+      <c r="AF16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AF16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="AL16" t="s" s="2">
         <v>78</v>
       </c>
@@ -3651,12 +3647,12 @@
         <v>78</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3667,31 +3663,31 @@
         <v>79</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J17" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>78</v>
@@ -3716,63 +3712,63 @@
         <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="X17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="X17" t="s" s="2">
+      <c r="Y17" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE17" t="s" s="2">
+      <c r="AF17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>196</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3780,115 +3776,115 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F18" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S18" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="R18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S18" t="s" s="2">
+      <c r="T18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="T18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE18" t="s" s="2">
+      <c r="AF18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AF18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>206</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3896,31 +3892,31 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F19" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3934,75 +3930,75 @@
         <v>78</v>
       </c>
       <c r="S19" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="T19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE19" t="s" s="2">
+      <c r="AF19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AF19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>214</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4013,25 +4009,25 @@
         <v>79</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J20" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4082,39 +4078,39 @@
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AF20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>221</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4125,28 +4121,28 @@
         <v>79</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J21" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4196,42 +4192,42 @@
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AF21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>229</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>78</v>
@@ -4253,16 +4249,16 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4312,7 +4308,7 @@
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>79</v>
@@ -4324,19 +4320,19 @@
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -4344,7 +4340,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4355,7 +4351,7 @@
         <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>78</v>
@@ -4367,13 +4363,13 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4424,25 +4420,25 @@
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>78</v>
@@ -4456,11 +4452,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4479,16 +4475,16 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>173</v>
-      </c>
       <c r="M24" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4526,19 +4522,19 @@
         <v>78</v>
       </c>
       <c r="AA24" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD24" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AB24" t="s" s="2">
+      <c r="AE24" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>79</v>
@@ -4550,13 +4546,13 @@
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>78</v>
@@ -4570,7 +4566,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4581,31 +4577,31 @@
         <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H25" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>78</v>
@@ -4630,50 +4626,50 @@
         <v>78</v>
       </c>
       <c r="W25" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="X25" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="X25" t="s" s="2">
+      <c r="Y25" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE25" t="s" s="2">
+      <c r="AF25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="AL25" t="s" s="2">
         <v>78</v>
       </c>
@@ -4681,12 +4677,12 @@
         <v>78</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4697,31 +4693,31 @@
         <v>79</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J26" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>78</v>
@@ -4746,63 +4742,63 @@
         <v>78</v>
       </c>
       <c r="W26" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="X26" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="X26" t="s" s="2">
+      <c r="Y26" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="Y26" t="s" s="2">
+      <c r="Z26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="Z26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE26" t="s" s="2">
+      <c r="AF26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>196</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4810,115 +4806,115 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F27" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>235</v>
-      </c>
       <c r="M27" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="S27" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="T27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE27" t="s" s="2">
+      <c r="AF27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AF27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>206</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4926,31 +4922,31 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F28" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4964,75 +4960,75 @@
         <v>78</v>
       </c>
       <c r="S28" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="T28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE28" t="s" s="2">
+      <c r="AF28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AF28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>214</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5043,25 +5039,25 @@
         <v>79</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J29" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5112,39 +5108,39 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AF29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>221</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5155,28 +5151,28 @@
         <v>79</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J30" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5226,39 +5222,39 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AF30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>229</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5281,13 +5277,13 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5338,7 +5334,7 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
@@ -5350,13 +5346,13 @@
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>78</v>
@@ -5370,7 +5366,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5378,31 +5374,31 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H32" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="I32" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J32" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5428,55 +5424,55 @@
         <v>78</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="Y32" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="Y32" t="s" s="2">
+      <c r="Z32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
+      <c r="AK32" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -5484,7 +5480,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5495,7 +5491,7 @@
         <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>78</v>
@@ -5507,13 +5503,13 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5540,49 +5536,49 @@
         <v>78</v>
       </c>
       <c r="W33" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="X33" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="X33" t="s" s="2">
+      <c r="Y33" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="Y33" t="s" s="2">
+      <c r="Z33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="Z33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
+      <c r="AK33" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>78</v>
@@ -5596,7 +5592,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5607,7 +5603,7 @@
         <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>78</v>
@@ -5619,16 +5615,16 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5654,49 +5650,49 @@
         <v>78</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="Y34" t="s" s="2">
+      <c r="Z34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>78</v>
@@ -5710,7 +5706,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5718,31 +5714,31 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F35" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J35" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5780,83 +5776,83 @@
         <v>78</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AB35" s="2"/>
       <c r="AC35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD35" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AE35" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
+      <c r="AK35" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>283</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F36" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5906,39 +5902,39 @@
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>283</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5946,31 +5942,31 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F37" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J37" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6020,39 +6016,39 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>294</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6063,7 +6059,7 @@
         <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>78</v>
@@ -6075,16 +6071,16 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L38" t="s" s="2">
-        <v>298</v>
-      </c>
       <c r="M38" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6134,25 +6130,25 @@
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>78</v>
@@ -6166,7 +6162,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6189,16 +6185,16 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>304</v>
-      </c>
       <c r="M39" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6248,7 +6244,7 @@
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
@@ -6260,16 +6256,16 @@
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -6280,7 +6276,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6303,13 +6299,13 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6360,7 +6356,7 @@
         <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -6372,13 +6368,13 @@
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>78</v>
@@ -6392,7 +6388,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6403,7 +6399,7 @@
         <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>78</v>
@@ -6415,13 +6411,13 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6472,25 +6468,25 @@
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>78</v>
@@ -6504,11 +6500,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6527,16 +6523,16 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>173</v>
-      </c>
       <c r="M42" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6586,7 +6582,7 @@
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
@@ -6598,13 +6594,13 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>78</v>
@@ -6618,11 +6614,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6635,25 +6631,25 @@
         <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>318</v>
-      </c>
       <c r="M43" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>78</v>
@@ -6702,7 +6698,7 @@
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -6714,13 +6710,13 @@
         <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>78</v>
@@ -6734,7 +6730,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6745,7 +6741,7 @@
         <v>79</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>78</v>
@@ -6757,17 +6753,17 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>78</v>
@@ -6792,49 +6788,49 @@
         <v>78</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="Y44" t="s" s="2">
+      <c r="Z44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>78</v>
@@ -6848,7 +6844,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6856,10 +6852,10 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>78</v>
@@ -6871,13 +6867,13 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6928,25 +6924,25 @@
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>78</v>
@@ -6960,7 +6956,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6971,7 +6967,7 @@
         <v>79</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>78</v>
@@ -6983,16 +6979,16 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L46" t="s" s="2">
-        <v>336</v>
-      </c>
       <c r="M46" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7042,25 +7038,25 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>78</v>
@@ -7074,7 +7070,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7097,16 +7093,16 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7156,7 +7152,7 @@
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
@@ -7168,27 +7164,27 @@
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AK47" t="s" s="2">
+      <c r="AL47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AL47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>346</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7199,7 +7195,7 @@
         <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>78</v>
@@ -7211,16 +7207,16 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7246,63 +7242,63 @@
         <v>78</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="Y48" t="s" s="2">
+      <c r="Z48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="Z48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AL48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>355</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7310,10 +7306,10 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>78</v>
@@ -7325,16 +7321,16 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7384,39 +7380,39 @@
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI49" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AJ49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>363</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7427,7 +7423,7 @@
         <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>78</v>
@@ -7439,16 +7435,16 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L50" t="s" s="2">
-        <v>366</v>
-      </c>
       <c r="M50" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7498,39 +7494,39 @@
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AJ50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK50" t="s" s="2">
+      <c r="AL50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>363</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7541,25 +7537,25 @@
         <v>79</v>
       </c>
       <c r="F51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I51" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J51" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7610,39 +7606,39 @@
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AL51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>373</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7650,10 +7646,10 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>78</v>
@@ -7665,13 +7661,13 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7722,39 +7718,39 @@
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AK52" t="s" s="2">
-        <v>378</v>
-      </c>
       <c r="AL52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>373</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7765,7 +7761,7 @@
         <v>79</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>78</v>
@@ -7777,16 +7773,16 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L53" t="s" s="2">
-        <v>381</v>
-      </c>
       <c r="M53" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7836,39 +7832,39 @@
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="AL53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>384</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7891,16 +7887,16 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L54" t="s" s="2">
-        <v>388</v>
-      </c>
       <c r="M54" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7950,7 +7946,7 @@
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>79</v>
@@ -7962,19 +7958,19 @@
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -7982,7 +7978,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8005,16 +8001,16 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8064,7 +8060,7 @@
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>79</v>
@@ -8076,27 +8072,27 @@
         <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AL55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>398</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8119,16 +8115,16 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8178,7 +8174,7 @@
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>79</v>
@@ -8190,13 +8186,13 @@
         <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>78</v>
@@ -8210,7 +8206,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8221,7 +8217,7 @@
         <v>79</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>78</v>
@@ -8233,13 +8229,13 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8290,31 +8286,31 @@
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -8322,7 +8318,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8333,7 +8329,7 @@
         <v>79</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>78</v>
@@ -8345,13 +8341,13 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8402,25 +8398,25 @@
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>78</v>
@@ -8434,11 +8430,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8457,16 +8453,16 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>173</v>
-      </c>
       <c r="M59" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8516,7 +8512,7 @@
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>79</v>
@@ -8528,13 +8524,13 @@
         <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>78</v>
@@ -8548,11 +8544,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8565,25 +8561,25 @@
         <v>78</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L60" t="s" s="2">
-        <v>318</v>
-      </c>
       <c r="M60" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N60" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>78</v>
@@ -8632,7 +8628,7 @@
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>79</v>
@@ -8644,13 +8640,13 @@
         <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>78</v>
@@ -8664,7 +8660,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8672,10 +8668,10 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>78</v>
@@ -8687,13 +8683,13 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8744,25 +8740,25 @@
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>78</v>
@@ -8776,7 +8772,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8787,7 +8783,7 @@
         <v>79</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>78</v>
@@ -8799,16 +8795,16 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8834,63 +8830,63 @@
         <v>78</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="X62" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="Y62" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="Y62" t="s" s="2">
+      <c r="Z62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="Z62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AN62" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>424</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8913,16 +8909,16 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="L63" t="s" s="2">
-        <v>427</v>
-      </c>
       <c r="M63" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8948,14 +8944,14 @@
         <v>78</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="X63" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="Y63" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="Y63" t="s" s="2">
-        <v>429</v>
-      </c>
       <c r="Z63" t="s" s="2">
         <v>78</v>
       </c>
@@ -8972,7 +8968,7 @@
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
@@ -8984,19 +8980,19 @@
         <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9004,7 +9000,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9027,16 +9023,16 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="L64" t="s" s="2">
-        <v>435</v>
-      </c>
       <c r="M64" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9086,7 +9082,7 @@
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>79</v>
@@ -9098,19 +9094,19 @@
         <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
@@ -9118,11 +9114,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9141,16 +9137,16 @@
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9200,7 +9196,7 @@
         <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>79</v>
@@ -9212,13 +9208,13 @@
         <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>78</v>
@@ -9232,7 +9228,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9255,16 +9251,16 @@
         <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9314,7 +9310,7 @@
         <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>79</v>
@@ -9326,13 +9322,13 @@
         <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>78</v>
